--- a/Excel/Giai_Dau.xlsx
+++ b/Excel/Giai_Dau.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="630" windowWidth="20775" windowHeight="8895" activeTab="1"/>
+    <workbookView xWindow="390" yWindow="630" windowWidth="20775" windowHeight="8895"/>
   </bookViews>
   <sheets>
     <sheet name="DS_Vong" sheetId="8" r:id="rId1"/>
@@ -523,13 +523,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -577,7 +578,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -585,7 +586,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -593,7 +594,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -601,7 +602,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -609,7 +610,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -617,7 +618,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -632,7 +633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>

--- a/Excel/Giai_Dau.xlsx
+++ b/Excel/Giai_Dau.xlsx
@@ -4,76 +4,31 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="630" windowWidth="20775" windowHeight="8895" activeTab="1"/>
+    <workbookView xWindow="390" yWindow="630" windowWidth="20775" windowHeight="8895" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="DS_Vong" sheetId="8" r:id="rId1"/>
     <sheet name="DS_VDV" sheetId="7" r:id="rId2"/>
     <sheet name="DS_Giai" sheetId="4" r:id="rId3"/>
     <sheet name="DS_Trinh" sheetId="6" r:id="rId4"/>
-    <sheet name="DS_Cap" sheetId="2" r:id="rId5"/>
-    <sheet name="DS_Bang" sheetId="1" r:id="rId6"/>
-    <sheet name="DS_Tran" sheetId="5" r:id="rId7"/>
-    <sheet name="DS_Diem" sheetId="3" r:id="rId8"/>
+    <sheet name="Sheet3" sheetId="11" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
-  <si>
-    <t>Id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="182">
   <si>
     <t>Diem</t>
   </si>
   <si>
-    <t>ID_Trinh</t>
-  </si>
-  <si>
     <t>Ten</t>
   </si>
   <si>
-    <t>ID_Bang</t>
-  </si>
-  <si>
-    <t>ID_Vdv1</t>
-  </si>
-  <si>
-    <t>ID_Vdv2</t>
-  </si>
-  <si>
-    <t>MaCap</t>
-  </si>
-  <si>
-    <t>ID_Cap</t>
-  </si>
-  <si>
-    <t>ID_Vong</t>
-  </si>
-  <si>
-    <t>GhiChu</t>
-  </si>
-  <si>
     <t>Ngay</t>
   </si>
   <si>
-    <t>ID_Cap1</t>
-  </si>
-  <si>
-    <t>ID_Cap2</t>
-  </si>
-  <si>
-    <t>Kq_1</t>
-  </si>
-  <si>
-    <t>Kq_2</t>
-  </si>
-  <si>
-    <t>Ma_Tran</t>
-  </si>
-  <si>
     <t>ChenhLech</t>
   </si>
   <si>
@@ -110,45 +65,12 @@
     <t>CLB</t>
   </si>
   <si>
-    <t>ChucVu</t>
-  </si>
-  <si>
-    <t>CongTy</t>
-  </si>
-  <si>
-    <t>DiemCu</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>FileAnh</t>
-  </si>
-  <si>
-    <t>Ho</t>
-  </si>
-  <si>
-    <t>ID_KhuVuc</t>
-  </si>
-  <si>
     <t>KhachMoi</t>
   </si>
   <si>
-    <t>Ma_Cap</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Tel</t>
-  </si>
-  <si>
     <t>Ten_Tat</t>
   </si>
   <si>
-    <t>Tham_Gia</t>
-  </si>
-  <si>
     <t>MaVong</t>
   </si>
   <si>
@@ -180,13 +102,475 @@
   </si>
   <si>
     <t>Vô Địch</t>
+  </si>
+  <si>
+    <t>Tất niên 2019</t>
+  </si>
+  <si>
+    <t>Xuân 2020</t>
+  </si>
+  <si>
+    <t>Tháng 5/2020</t>
+  </si>
+  <si>
+    <t>Tiếp sức đến trường 2020</t>
+  </si>
+  <si>
+    <t>Canon 2020</t>
+  </si>
+  <si>
+    <t>Tất niên 2020</t>
+  </si>
+  <si>
+    <t>Gia Huy (VT QN)</t>
+  </si>
+  <si>
+    <t>QN</t>
+  </si>
+  <si>
+    <t>Bình Đèn</t>
+  </si>
+  <si>
+    <t>NT</t>
+  </si>
+  <si>
+    <t>Nguyên HQ</t>
+  </si>
+  <si>
+    <t>Hải Quân</t>
+  </si>
+  <si>
+    <t>Sơn (Tú Sơn - PY)</t>
+  </si>
+  <si>
+    <t>Dũng Tú Sơn</t>
+  </si>
+  <si>
+    <t>Phú Yên</t>
+  </si>
+  <si>
+    <t>Dũ Cetis</t>
+  </si>
+  <si>
+    <t>Nam LinhS</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>Khánh HQ</t>
+  </si>
+  <si>
+    <t>Chính (Việt An)</t>
+  </si>
+  <si>
+    <t>Hoàng (Đốm)</t>
+  </si>
+  <si>
+    <t>Phước Hòa</t>
+  </si>
+  <si>
+    <t>Lê Tư Sinh</t>
+  </si>
+  <si>
+    <t>Hảo CNCS</t>
+  </si>
+  <si>
+    <t>Hưng PĐ</t>
+  </si>
+  <si>
+    <t>Vĩnh CenIT</t>
+  </si>
+  <si>
+    <t>Thọ Hội TT</t>
+  </si>
+  <si>
+    <t>Hội Thông Tin</t>
+  </si>
+  <si>
+    <t>Khương Hội TT</t>
+  </si>
+  <si>
+    <t>Duyệt HQ</t>
+  </si>
+  <si>
+    <t>Bình Đèn LED</t>
+  </si>
+  <si>
+    <t>L. Khánh HQ</t>
+  </si>
+  <si>
+    <t>Huân QH</t>
+  </si>
+  <si>
+    <t>Đức BĐS</t>
+  </si>
+  <si>
+    <t>Ân NSSC</t>
+  </si>
+  <si>
+    <t>Ninh Hoà</t>
+  </si>
+  <si>
+    <t>Minh SB</t>
+  </si>
+  <si>
+    <t>Quân CTN</t>
+  </si>
+  <si>
+    <t>Dũng PH</t>
+  </si>
+  <si>
+    <t>Diệp TD</t>
+  </si>
+  <si>
+    <t>HCM</t>
+  </si>
+  <si>
+    <t>Út Hội TT</t>
+  </si>
+  <si>
+    <t>Mr Trần Tú</t>
+  </si>
+  <si>
+    <t>Tuấn NHBD</t>
+  </si>
+  <si>
+    <t>Nam Lý Gia</t>
+  </si>
+  <si>
+    <t>Dương Quang Hổ</t>
+  </si>
+  <si>
+    <t>Phước Hoà</t>
+  </si>
+  <si>
+    <t>Minh MP</t>
+  </si>
+  <si>
+    <t>Thành (Vân Phong)</t>
+  </si>
+  <si>
+    <t>Lên (Vạn Ninh)</t>
+  </si>
+  <si>
+    <t>Quang PAn</t>
+  </si>
+  <si>
+    <t>Sang CM</t>
+  </si>
+  <si>
+    <t>An Vạn Xuân</t>
+  </si>
+  <si>
+    <t>Thi XD</t>
+  </si>
+  <si>
+    <t>Tuấn NT</t>
+  </si>
+  <si>
+    <t>Triết CenIT</t>
+  </si>
+  <si>
+    <t>Tuấn TH</t>
+  </si>
+  <si>
+    <t>Mr Kiên HCN</t>
+  </si>
+  <si>
+    <t>Tường An Phú</t>
+  </si>
+  <si>
+    <t>An HN</t>
+  </si>
+  <si>
+    <t>Tuấn NIC</t>
+  </si>
+  <si>
+    <t>Phi (HP HCM)</t>
+  </si>
+  <si>
+    <t>Mr Thành GLH</t>
+  </si>
+  <si>
+    <t>Tuất VĐ</t>
+  </si>
+  <si>
+    <t>Cường ĐP</t>
+  </si>
+  <si>
+    <t>Vũ Ami</t>
+  </si>
+  <si>
+    <t>Dũng VS</t>
+  </si>
+  <si>
+    <t>Phạm Minh Hảo</t>
+  </si>
+  <si>
+    <t>FPT Đà Nẵng</t>
+  </si>
+  <si>
+    <t>Phương CITYTECH</t>
+  </si>
+  <si>
+    <t>Lạc Hội TT</t>
+  </si>
+  <si>
+    <t>Chung Hội TT</t>
+  </si>
+  <si>
+    <t>Hùng VP</t>
+  </si>
+  <si>
+    <t>Sang TP</t>
+  </si>
+  <si>
+    <t>Võ HQ</t>
+  </si>
+  <si>
+    <t>Chinh Hội TT</t>
+  </si>
+  <si>
+    <t>Mr Trần Khắc Thảo</t>
+  </si>
+  <si>
+    <t>Long Hội TT</t>
+  </si>
+  <si>
+    <t>Mr Bá Tước</t>
+  </si>
+  <si>
+    <t>Trung THM</t>
+  </si>
+  <si>
+    <t>Phát PH</t>
+  </si>
+  <si>
+    <t>Hoàn TIC</t>
+  </si>
+  <si>
+    <t>Đà Nẵng</t>
+  </si>
+  <si>
+    <t>Tân PR</t>
+  </si>
+  <si>
+    <t>Đoàn (VH - HCM)</t>
+  </si>
+  <si>
+    <t>Mr Anh (AN HCM)</t>
+  </si>
+  <si>
+    <t>Tuấn TL</t>
+  </si>
+  <si>
+    <t>Quãng Ngãi</t>
+  </si>
+  <si>
+    <t>Đáng VPH</t>
+  </si>
+  <si>
+    <t>Hoàng FSC</t>
+  </si>
+  <si>
+    <t>Tiền (DSS-HCM)</t>
+  </si>
+  <si>
+    <t>Bảo Sacombank</t>
+  </si>
+  <si>
+    <t>Sơn Thiên Ân</t>
+  </si>
+  <si>
+    <t>Nguyễn Hữu Lương</t>
+  </si>
+  <si>
+    <t>Vĩnh HCN</t>
+  </si>
+  <si>
+    <t>Lam Anh Khôi</t>
+  </si>
+  <si>
+    <t>Thứ Phương Lan</t>
+  </si>
+  <si>
+    <t>Ái ASUS</t>
+  </si>
+  <si>
+    <t>Mr Lê Thành Chung</t>
+  </si>
+  <si>
+    <t>B.Phương (VT VN)</t>
+  </si>
+  <si>
+    <t>Hùng HM</t>
+  </si>
+  <si>
+    <t>Hà QL</t>
+  </si>
+  <si>
+    <t>Mr Sinh Sunrise</t>
+  </si>
+  <si>
+    <t>Mr Lợi ĐD</t>
+  </si>
+  <si>
+    <t>Phúc PDK</t>
+  </si>
+  <si>
+    <t>Nguyên HCN</t>
+  </si>
+  <si>
+    <t>Thông NH</t>
+  </si>
+  <si>
+    <t>Ninh Hòa</t>
+  </si>
+  <si>
+    <t>Mr Duy (FPT MT)</t>
+  </si>
+  <si>
+    <t>Hưởng Hội TT</t>
+  </si>
+  <si>
+    <t>Amin PR</t>
+  </si>
+  <si>
+    <t>Huân Vinatech</t>
+  </si>
+  <si>
+    <t>Tùng Anh</t>
+  </si>
+  <si>
+    <t>Tuân HCN</t>
+  </si>
+  <si>
+    <t>Nguyễn Minh Đức</t>
+  </si>
+  <si>
+    <t>Thi Gỗ HCN</t>
+  </si>
+  <si>
+    <t>Ánh Hội TTĐ</t>
+  </si>
+  <si>
+    <t>Diệp (GP HCM)</t>
+  </si>
+  <si>
+    <t>Ms Hoa (VT QN)</t>
+  </si>
+  <si>
+    <t>Ms. Trang Nhật Phong</t>
+  </si>
+  <si>
+    <t>Đua VHLT</t>
+  </si>
+  <si>
+    <t>Giang TG</t>
+  </si>
+  <si>
+    <t>Linh SeaSoft</t>
+  </si>
+  <si>
+    <t>Mỹ 24/7</t>
+  </si>
+  <si>
+    <t>A. Lý VG</t>
+  </si>
+  <si>
+    <t>Khải Micons</t>
+  </si>
+  <si>
+    <t>Phúc Lưu Phúc</t>
+  </si>
+  <si>
+    <t>Ms. Hiền SQTT</t>
+  </si>
+  <si>
+    <t>Cường (Telecom HCM)</t>
+  </si>
+  <si>
+    <t>Lương (FPT MT)</t>
+  </si>
+  <si>
+    <t>Thắng Nhatech</t>
+  </si>
+  <si>
+    <t>Sơn VHLT</t>
+  </si>
+  <si>
+    <t>Thanh LQ</t>
+  </si>
+  <si>
+    <t>Thiện Lenovo</t>
+  </si>
+  <si>
+    <t>Lenovo</t>
+  </si>
+  <si>
+    <t>Vinh Asia</t>
+  </si>
+  <si>
+    <t>Cang VP</t>
+  </si>
+  <si>
+    <t>Hảo (FPT MT)</t>
+  </si>
+  <si>
+    <t>Tâm (MT HCM)</t>
+  </si>
+  <si>
+    <t>Thanh TH</t>
+  </si>
+  <si>
+    <t>Thi SK</t>
+  </si>
+  <si>
+    <t>Bình Dương</t>
+  </si>
+  <si>
+    <t>NĐ Huy</t>
+  </si>
+  <si>
+    <t>Anh (Hải Anh)</t>
+  </si>
+  <si>
+    <t>Khôi (FPT MT)</t>
+  </si>
+  <si>
+    <t>Hùng HAT</t>
+  </si>
+  <si>
+    <t>Kiệt ASUS</t>
+  </si>
+  <si>
+    <t>Khôi - KMC</t>
+  </si>
+  <si>
+    <t>ĐaniÊn TT</t>
+  </si>
+  <si>
+    <t>Ms Thọ VG</t>
+  </si>
+  <si>
+    <t>Hòa TTĐ</t>
+  </si>
+  <si>
+    <t>Ms. Năm</t>
+  </si>
+  <si>
+    <t>GioiTinh</t>
+  </si>
+  <si>
+    <t>Tân niên 2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -195,14 +579,38 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -217,9 +625,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -232,6 +646,87 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>179943</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>94786</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8257143" cy="3714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>65657</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>94643</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4381500"/>
+          <a:ext cx="8142857" cy="4857143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -524,20 +1019,21 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -545,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -553,7 +1049,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -561,7 +1057,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -569,7 +1065,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -577,7 +1073,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -585,7 +1081,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -593,7 +1089,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -601,7 +1097,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -609,7 +1105,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -617,7 +1113,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -630,72 +1126,2078 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:E133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="11" width="9.140625" customWidth="1"/>
-    <col min="12" max="12" width="11" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" customWidth="1"/>
-    <col min="14" max="16" width="9.140625" customWidth="1"/>
-    <col min="17" max="17" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2">
+        <v>770</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3">
+        <v>761</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4">
+        <v>750</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="C5">
+        <v>750</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6">
+        <v>748</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="C7">
+        <v>747</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8">
+        <v>743</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" t="s">
         <v>39</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>41</v>
+      <c r="C9">
+        <v>734</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10">
+        <v>731</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11">
+        <v>730</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12">
+        <v>730</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13">
+        <v>729</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14">
+        <v>723</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15">
+        <v>722</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16">
+        <v>721</v>
+      </c>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17">
+        <v>718</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18">
+        <v>716</v>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19">
+        <v>710</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20">
+        <v>709</v>
+      </c>
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21">
+        <v>706</v>
+      </c>
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22">
+        <v>702</v>
+      </c>
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23">
+        <v>701</v>
+      </c>
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24">
+        <v>700</v>
+      </c>
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25">
+        <v>699</v>
+      </c>
+      <c r="D25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26">
+        <v>697</v>
+      </c>
+      <c r="D26" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27">
+        <v>695</v>
+      </c>
+      <c r="D27" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28">
+        <v>695</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29">
+        <v>694</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30">
+        <v>692</v>
+      </c>
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31">
+        <v>691</v>
+      </c>
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32">
+        <v>690</v>
+      </c>
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33">
+        <v>690</v>
+      </c>
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34">
+        <v>690</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35">
+        <v>687</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36">
+        <v>687</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37">
+        <v>686</v>
+      </c>
+      <c r="D37" t="b">
+        <v>0</v>
+      </c>
+      <c r="E37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38">
+        <v>685</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39">
+        <v>685</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40">
+        <v>685</v>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41">
+        <v>684</v>
+      </c>
+      <c r="D41" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42">
+        <v>684</v>
+      </c>
+      <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43">
+        <v>683</v>
+      </c>
+      <c r="D43" t="b">
+        <v>1</v>
+      </c>
+      <c r="E43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44">
+        <v>682</v>
+      </c>
+      <c r="D44" t="b">
+        <v>1</v>
+      </c>
+      <c r="E44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45">
+        <v>680</v>
+      </c>
+      <c r="D45" t="b">
+        <v>1</v>
+      </c>
+      <c r="E45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46">
+        <v>680</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47">
+        <v>680</v>
+      </c>
+      <c r="D47" t="b">
+        <v>1</v>
+      </c>
+      <c r="E47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>90</v>
+      </c>
+      <c r="B48" t="s">
+        <v>37</v>
+      </c>
+      <c r="C48">
+        <v>679</v>
+      </c>
+      <c r="D48" t="b">
+        <v>1</v>
+      </c>
+      <c r="E48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>91</v>
+      </c>
+      <c r="C49">
+        <v>679</v>
+      </c>
+      <c r="D49" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>92</v>
+      </c>
+      <c r="C50">
+        <v>678</v>
+      </c>
+      <c r="D50" t="b">
+        <v>0</v>
+      </c>
+      <c r="E50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>93</v>
+      </c>
+      <c r="C51">
+        <v>678</v>
+      </c>
+      <c r="D51" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>94</v>
+      </c>
+      <c r="C52">
+        <v>676</v>
+      </c>
+      <c r="D52" t="b">
+        <v>1</v>
+      </c>
+      <c r="E52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>95</v>
+      </c>
+      <c r="B53" t="s">
+        <v>96</v>
+      </c>
+      <c r="C53">
+        <v>676</v>
+      </c>
+      <c r="D53" t="b">
+        <v>1</v>
+      </c>
+      <c r="E53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>97</v>
+      </c>
+      <c r="B54" t="s">
+        <v>37</v>
+      </c>
+      <c r="C54">
+        <v>675</v>
+      </c>
+      <c r="D54" t="b">
+        <v>1</v>
+      </c>
+      <c r="E54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>98</v>
+      </c>
+      <c r="B55" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55">
+        <v>675</v>
+      </c>
+      <c r="D55" t="b">
+        <v>1</v>
+      </c>
+      <c r="E55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>99</v>
+      </c>
+      <c r="B56" t="s">
+        <v>55</v>
+      </c>
+      <c r="C56">
+        <v>674</v>
+      </c>
+      <c r="D56" t="b">
+        <v>1</v>
+      </c>
+      <c r="E56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>100</v>
+      </c>
+      <c r="C57">
+        <v>672</v>
+      </c>
+      <c r="D57" t="b">
+        <v>0</v>
+      </c>
+      <c r="E57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>101</v>
+      </c>
+      <c r="C58">
+        <v>672</v>
+      </c>
+      <c r="D58" t="b">
+        <v>0</v>
+      </c>
+      <c r="E58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>102</v>
+      </c>
+      <c r="B59" t="s">
+        <v>39</v>
+      </c>
+      <c r="C59">
+        <v>671</v>
+      </c>
+      <c r="D59" t="b">
+        <v>1</v>
+      </c>
+      <c r="E59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>103</v>
+      </c>
+      <c r="B60" t="s">
+        <v>55</v>
+      </c>
+      <c r="C60">
+        <v>671</v>
+      </c>
+      <c r="D60" t="b">
+        <v>1</v>
+      </c>
+      <c r="E60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>104</v>
+      </c>
+      <c r="B61" t="s">
+        <v>68</v>
+      </c>
+      <c r="C61">
+        <v>670</v>
+      </c>
+      <c r="D61" t="b">
+        <v>1</v>
+      </c>
+      <c r="E61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>105</v>
+      </c>
+      <c r="B62" t="s">
+        <v>55</v>
+      </c>
+      <c r="C62">
+        <v>670</v>
+      </c>
+      <c r="D62" t="b">
+        <v>1</v>
+      </c>
+      <c r="E62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>106</v>
+      </c>
+      <c r="B63" t="s">
+        <v>37</v>
+      </c>
+      <c r="C63">
+        <v>669</v>
+      </c>
+      <c r="D63" t="b">
+        <v>1</v>
+      </c>
+      <c r="E63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>107</v>
+      </c>
+      <c r="C64">
+        <v>666</v>
+      </c>
+      <c r="D64" t="b">
+        <v>0</v>
+      </c>
+      <c r="E64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>108</v>
+      </c>
+      <c r="C65">
+        <v>665</v>
+      </c>
+      <c r="D65" t="b">
+        <v>0</v>
+      </c>
+      <c r="E65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>109</v>
+      </c>
+      <c r="B66" t="s">
+        <v>110</v>
+      </c>
+      <c r="C66">
+        <v>661</v>
+      </c>
+      <c r="D66" t="b">
+        <v>1</v>
+      </c>
+      <c r="E66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>111</v>
+      </c>
+      <c r="C67">
+        <v>661</v>
+      </c>
+      <c r="D67" t="b">
+        <v>1</v>
+      </c>
+      <c r="E67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>112</v>
+      </c>
+      <c r="C68">
+        <v>660</v>
+      </c>
+      <c r="D68" t="b">
+        <v>1</v>
+      </c>
+      <c r="E68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>113</v>
+      </c>
+      <c r="C69">
+        <v>660</v>
+      </c>
+      <c r="D69" t="b">
+        <v>1</v>
+      </c>
+      <c r="E69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>114</v>
+      </c>
+      <c r="B70" t="s">
+        <v>115</v>
+      </c>
+      <c r="C70">
+        <v>660</v>
+      </c>
+      <c r="D70" t="b">
+        <v>1</v>
+      </c>
+      <c r="E70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>116</v>
+      </c>
+      <c r="B71" t="s">
+        <v>68</v>
+      </c>
+      <c r="C71">
+        <v>658</v>
+      </c>
+      <c r="D71" t="b">
+        <v>1</v>
+      </c>
+      <c r="E71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>117</v>
+      </c>
+      <c r="C72">
+        <v>658</v>
+      </c>
+      <c r="D72" t="b">
+        <v>1</v>
+      </c>
+      <c r="E72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>118</v>
+      </c>
+      <c r="C73">
+        <v>658</v>
+      </c>
+      <c r="D73" t="b">
+        <v>1</v>
+      </c>
+      <c r="E73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>119</v>
+      </c>
+      <c r="B74" t="s">
+        <v>68</v>
+      </c>
+      <c r="C74">
+        <v>657</v>
+      </c>
+      <c r="D74" t="b">
+        <v>1</v>
+      </c>
+      <c r="E74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>120</v>
+      </c>
+      <c r="B75" t="s">
+        <v>68</v>
+      </c>
+      <c r="C75">
+        <v>657</v>
+      </c>
+      <c r="D75" t="b">
+        <v>1</v>
+      </c>
+      <c r="E75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>121</v>
+      </c>
+      <c r="B76" t="s">
+        <v>96</v>
+      </c>
+      <c r="C76">
+        <v>656</v>
+      </c>
+      <c r="D76" t="b">
+        <v>1</v>
+      </c>
+      <c r="E76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>122</v>
+      </c>
+      <c r="C77">
+        <v>656</v>
+      </c>
+      <c r="D77" t="b">
+        <v>1</v>
+      </c>
+      <c r="E77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>123</v>
+      </c>
+      <c r="B78" t="s">
+        <v>110</v>
+      </c>
+      <c r="C78">
+        <v>654</v>
+      </c>
+      <c r="D78" t="b">
+        <v>1</v>
+      </c>
+      <c r="E78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>124</v>
+      </c>
+      <c r="B79" t="s">
+        <v>110</v>
+      </c>
+      <c r="C79">
+        <v>654</v>
+      </c>
+      <c r="D79" t="b">
+        <v>1</v>
+      </c>
+      <c r="E79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>125</v>
+      </c>
+      <c r="B80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C80">
+        <v>652</v>
+      </c>
+      <c r="D80" t="b">
+        <v>1</v>
+      </c>
+      <c r="E80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>126</v>
+      </c>
+      <c r="B81" t="s">
+        <v>68</v>
+      </c>
+      <c r="C81">
+        <v>651</v>
+      </c>
+      <c r="D81" t="b">
+        <v>1</v>
+      </c>
+      <c r="E81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>127</v>
+      </c>
+      <c r="C82">
+        <v>650</v>
+      </c>
+      <c r="D82" t="b">
+        <v>1</v>
+      </c>
+      <c r="E82" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>117</v>
+      </c>
+      <c r="C83">
+        <v>650</v>
+      </c>
+      <c r="D83" t="b">
+        <v>1</v>
+      </c>
+      <c r="E83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>128</v>
+      </c>
+      <c r="B84" t="s">
+        <v>110</v>
+      </c>
+      <c r="C84">
+        <v>650</v>
+      </c>
+      <c r="D84" t="b">
+        <v>1</v>
+      </c>
+      <c r="E84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>129</v>
+      </c>
+      <c r="B85" t="s">
+        <v>55</v>
+      </c>
+      <c r="C85">
+        <v>649</v>
+      </c>
+      <c r="D85" t="b">
+        <v>1</v>
+      </c>
+      <c r="E85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>130</v>
+      </c>
+      <c r="B86" t="s">
+        <v>37</v>
+      </c>
+      <c r="C86">
+        <v>646</v>
+      </c>
+      <c r="D86" t="b">
+        <v>1</v>
+      </c>
+      <c r="E86" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>131</v>
+      </c>
+      <c r="C87">
+        <v>645</v>
+      </c>
+      <c r="D87" t="b">
+        <v>1</v>
+      </c>
+      <c r="E87" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>132</v>
+      </c>
+      <c r="B88" t="s">
+        <v>68</v>
+      </c>
+      <c r="C88">
+        <v>644</v>
+      </c>
+      <c r="D88" t="b">
+        <v>1</v>
+      </c>
+      <c r="E88" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>133</v>
+      </c>
+      <c r="C89">
+        <v>643</v>
+      </c>
+      <c r="D89" t="b">
+        <v>1</v>
+      </c>
+      <c r="E89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>134</v>
+      </c>
+      <c r="B90" t="s">
+        <v>135</v>
+      </c>
+      <c r="C90">
+        <v>642</v>
+      </c>
+      <c r="D90" t="b">
+        <v>1</v>
+      </c>
+      <c r="E90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>136</v>
+      </c>
+      <c r="C91">
+        <v>641</v>
+      </c>
+      <c r="D91" t="b">
+        <v>1</v>
+      </c>
+      <c r="E91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>137</v>
+      </c>
+      <c r="B92" t="s">
+        <v>55</v>
+      </c>
+      <c r="C92">
+        <v>641</v>
+      </c>
+      <c r="D92" t="b">
+        <v>1</v>
+      </c>
+      <c r="E92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>138</v>
+      </c>
+      <c r="C93">
+        <v>640</v>
+      </c>
+      <c r="D93" t="b">
+        <v>1</v>
+      </c>
+      <c r="E93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>139</v>
+      </c>
+      <c r="C94">
+        <v>639</v>
+      </c>
+      <c r="D94" t="b">
+        <v>0</v>
+      </c>
+      <c r="E94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>140</v>
+      </c>
+      <c r="C95">
+        <v>639</v>
+      </c>
+      <c r="D95" t="b">
+        <v>0</v>
+      </c>
+      <c r="E95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>141</v>
+      </c>
+      <c r="C96">
+        <v>639</v>
+      </c>
+      <c r="D96" t="b">
+        <v>1</v>
+      </c>
+      <c r="E96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>142</v>
+      </c>
+      <c r="B97" t="s">
+        <v>96</v>
+      </c>
+      <c r="C97">
+        <v>636</v>
+      </c>
+      <c r="D97" t="b">
+        <v>1</v>
+      </c>
+      <c r="E97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>143</v>
+      </c>
+      <c r="C98">
+        <v>635</v>
+      </c>
+      <c r="D98" t="b">
+        <v>1</v>
+      </c>
+      <c r="E98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>144</v>
+      </c>
+      <c r="C99">
+        <v>632</v>
+      </c>
+      <c r="D99" t="b">
+        <v>1</v>
+      </c>
+      <c r="E99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>145</v>
+      </c>
+      <c r="C100">
+        <v>630</v>
+      </c>
+      <c r="D100" t="b">
+        <v>1</v>
+      </c>
+      <c r="E100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>146</v>
+      </c>
+      <c r="C101">
+        <v>630</v>
+      </c>
+      <c r="D101" t="b">
+        <v>1</v>
+      </c>
+      <c r="E101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>147</v>
+      </c>
+      <c r="B102" t="s">
+        <v>37</v>
+      </c>
+      <c r="C102">
+        <v>629</v>
+      </c>
+      <c r="D102" t="b">
+        <v>1</v>
+      </c>
+      <c r="E102" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>148</v>
+      </c>
+      <c r="B103" t="s">
+        <v>68</v>
+      </c>
+      <c r="C103">
+        <v>627</v>
+      </c>
+      <c r="D103" t="b">
+        <v>1</v>
+      </c>
+      <c r="E103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>149</v>
+      </c>
+      <c r="B104" t="s">
+        <v>68</v>
+      </c>
+      <c r="C104">
+        <v>627</v>
+      </c>
+      <c r="D104" t="b">
+        <v>1</v>
+      </c>
+      <c r="E104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>150</v>
+      </c>
+      <c r="C105">
+        <v>627</v>
+      </c>
+      <c r="D105" t="b">
+        <v>0</v>
+      </c>
+      <c r="E105" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>151</v>
+      </c>
+      <c r="C106">
+        <v>624</v>
+      </c>
+      <c r="D106" t="b">
+        <v>0</v>
+      </c>
+      <c r="E106" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>152</v>
+      </c>
+      <c r="C107">
+        <v>623</v>
+      </c>
+      <c r="D107" t="b">
+        <v>0</v>
+      </c>
+      <c r="E107" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>153</v>
+      </c>
+      <c r="B108" t="s">
+        <v>37</v>
+      </c>
+      <c r="C108">
+        <v>623</v>
+      </c>
+      <c r="D108" t="b">
+        <v>1</v>
+      </c>
+      <c r="E108" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>154</v>
+      </c>
+      <c r="B109" t="s">
+        <v>68</v>
+      </c>
+      <c r="C109">
+        <v>622</v>
+      </c>
+      <c r="D109" t="b">
+        <v>1</v>
+      </c>
+      <c r="E109" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>155</v>
+      </c>
+      <c r="B110" t="s">
+        <v>55</v>
+      </c>
+      <c r="C110">
+        <v>622</v>
+      </c>
+      <c r="D110" t="b">
+        <v>1</v>
+      </c>
+      <c r="E110" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>156</v>
+      </c>
+      <c r="C111">
+        <v>620</v>
+      </c>
+      <c r="D111" t="b">
+        <v>1</v>
+      </c>
+      <c r="E111" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>157</v>
+      </c>
+      <c r="C112">
+        <v>620</v>
+      </c>
+      <c r="D112" t="b">
+        <v>1</v>
+      </c>
+      <c r="E112" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>158</v>
+      </c>
+      <c r="C113">
+        <v>620</v>
+      </c>
+      <c r="D113" t="b">
+        <v>0</v>
+      </c>
+      <c r="E113" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>159</v>
+      </c>
+      <c r="B114" t="s">
+        <v>68</v>
+      </c>
+      <c r="C114">
+        <v>619</v>
+      </c>
+      <c r="D114" t="b">
+        <v>1</v>
+      </c>
+      <c r="E114" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>160</v>
+      </c>
+      <c r="B115" t="s">
+        <v>68</v>
+      </c>
+      <c r="C115">
+        <v>619</v>
+      </c>
+      <c r="D115" t="b">
+        <v>1</v>
+      </c>
+      <c r="E115" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>161</v>
+      </c>
+      <c r="B116" t="s">
+        <v>162</v>
+      </c>
+      <c r="C116">
+        <v>617</v>
+      </c>
+      <c r="D116" t="b">
+        <v>1</v>
+      </c>
+      <c r="E116" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>163</v>
+      </c>
+      <c r="B117" t="s">
+        <v>37</v>
+      </c>
+      <c r="C117">
+        <v>617</v>
+      </c>
+      <c r="D117" t="b">
+        <v>1</v>
+      </c>
+      <c r="E117" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>164</v>
+      </c>
+      <c r="C118">
+        <v>609</v>
+      </c>
+      <c r="D118" t="b">
+        <v>0</v>
+      </c>
+      <c r="E118" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>165</v>
+      </c>
+      <c r="C119">
+        <v>600</v>
+      </c>
+      <c r="D119" t="b">
+        <v>1</v>
+      </c>
+      <c r="E119" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>166</v>
+      </c>
+      <c r="C120">
+        <v>600</v>
+      </c>
+      <c r="D120" t="b">
+        <v>1</v>
+      </c>
+      <c r="E120" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>167</v>
+      </c>
+      <c r="C121">
+        <v>600</v>
+      </c>
+      <c r="D121" t="b">
+        <v>0</v>
+      </c>
+      <c r="E121" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>168</v>
+      </c>
+      <c r="C122">
+        <v>598</v>
+      </c>
+      <c r="D122" t="b">
+        <v>0</v>
+      </c>
+      <c r="E122" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>169</v>
+      </c>
+      <c r="C123">
+        <v>596</v>
+      </c>
+      <c r="D123" t="b">
+        <v>0</v>
+      </c>
+      <c r="E123" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>170</v>
+      </c>
+      <c r="C124">
+        <v>595</v>
+      </c>
+      <c r="D124" t="b">
+        <v>1</v>
+      </c>
+      <c r="E124" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>171</v>
+      </c>
+      <c r="C125">
+        <v>591</v>
+      </c>
+      <c r="D125" t="b">
+        <v>1</v>
+      </c>
+      <c r="E125" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>172</v>
+      </c>
+      <c r="C126">
+        <v>590</v>
+      </c>
+      <c r="D126" t="b">
+        <v>1</v>
+      </c>
+      <c r="E126" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>173</v>
+      </c>
+      <c r="C127">
+        <v>586</v>
+      </c>
+      <c r="D127" t="b">
+        <v>0</v>
+      </c>
+      <c r="E127" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>174</v>
+      </c>
+      <c r="B128" t="s">
+        <v>68</v>
+      </c>
+      <c r="C128">
+        <v>584</v>
+      </c>
+      <c r="D128" t="b">
+        <v>1</v>
+      </c>
+      <c r="E128" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>175</v>
+      </c>
+      <c r="C129">
+        <v>581</v>
+      </c>
+      <c r="D129" t="b">
+        <v>0</v>
+      </c>
+      <c r="E129" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>176</v>
+      </c>
+      <c r="C130">
+        <v>576</v>
+      </c>
+      <c r="D130" t="b">
+        <v>0</v>
+      </c>
+      <c r="E130" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>177</v>
+      </c>
+      <c r="C131">
+        <v>574</v>
+      </c>
+      <c r="D131" t="b">
+        <v>0</v>
+      </c>
+      <c r="E131" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>178</v>
+      </c>
+      <c r="C132">
+        <v>571</v>
+      </c>
+      <c r="D132" t="b">
+        <v>1</v>
+      </c>
+      <c r="E132" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>179</v>
+      </c>
+      <c r="C133">
+        <v>569</v>
+      </c>
+      <c r="D133" t="b">
+        <v>1</v>
+      </c>
+      <c r="E133" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -705,29 +3207,80 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>43827</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>43862</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>43974</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>44030</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>44121</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>44191</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>44247</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -737,209 +3290,531 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="9.140625" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="2">
+        <v>1240</v>
+      </c>
+      <c r="C2">
+        <v>48</v>
+      </c>
+      <c r="D2">
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>300</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0.6</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="2">
+        <v>1340</v>
+      </c>
+      <c r="C3">
+        <v>72</v>
+      </c>
+      <c r="D3">
+        <v>16</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>300</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0.6</v>
+      </c>
+      <c r="I3">
+        <v>0.2</v>
+      </c>
+      <c r="J3">
+        <v>0.2</v>
+      </c>
+      <c r="K3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>1235</v>
+      </c>
+      <c r="C4">
+        <v>72</v>
+      </c>
+      <c r="D4">
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>300</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0.6</v>
+      </c>
+      <c r="I4">
+        <v>0.2</v>
+      </c>
+      <c r="J4">
+        <v>0.2</v>
+      </c>
+      <c r="K4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>1385</v>
+      </c>
+      <c r="C5">
+        <v>72</v>
+      </c>
+      <c r="D5">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>300</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0.6</v>
+      </c>
+      <c r="I5">
+        <v>0.2</v>
+      </c>
+      <c r="J5">
+        <v>0.2</v>
+      </c>
+      <c r="K5">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>1370</v>
+      </c>
+      <c r="C6">
+        <v>103</v>
+      </c>
+      <c r="D6">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>300</v>
+      </c>
+      <c r="G6">
+        <v>0.1</v>
+      </c>
+      <c r="H6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J6">
+        <v>0.06</v>
+      </c>
+      <c r="K6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>1235</v>
+      </c>
+      <c r="C7">
+        <v>111</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>300</v>
+      </c>
+      <c r="G7">
+        <v>0.1</v>
+      </c>
+      <c r="H7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I7">
+        <v>0.13</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>1385</v>
+      </c>
+      <c r="C8">
+        <v>121</v>
+      </c>
+      <c r="D8">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>300</v>
+      </c>
+      <c r="G8">
+        <v>0.1</v>
+      </c>
+      <c r="H8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J8">
+        <v>0.06</v>
+      </c>
+      <c r="K8">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>1250</v>
+      </c>
+      <c r="C9">
+        <v>243</v>
+      </c>
+      <c r="D9">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>27</v>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>300</v>
+      </c>
+      <c r="G9">
+        <v>0.1</v>
+      </c>
+      <c r="H9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J9">
+        <v>0.06</v>
+      </c>
+      <c r="K9">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>1390</v>
+      </c>
+      <c r="C10">
+        <v>77</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>300</v>
+      </c>
+      <c r="G10">
+        <v>0.1</v>
+      </c>
+      <c r="H10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J10">
+        <v>0.06</v>
+      </c>
+      <c r="K10">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>1260</v>
+      </c>
+      <c r="C11">
+        <v>84</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>300</v>
+      </c>
+      <c r="G11">
+        <v>0.1</v>
+      </c>
+      <c r="H11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J11">
+        <v>0.06</v>
+      </c>
+      <c r="K11">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>1355</v>
+      </c>
+      <c r="C12">
+        <v>148</v>
+      </c>
+      <c r="D12">
+        <v>13</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>300</v>
+      </c>
+      <c r="G12">
+        <v>0.1</v>
+      </c>
+      <c r="H12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J12">
+        <v>0.06</v>
+      </c>
+      <c r="K12">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <v>1260</v>
+      </c>
+      <c r="C13">
+        <v>80</v>
+      </c>
+      <c r="D13">
+        <v>9</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>300</v>
+      </c>
+      <c r="G13">
+        <v>0.1</v>
+      </c>
+      <c r="H13">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I13">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J13">
+        <v>0.06</v>
+      </c>
+      <c r="K13">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
+        <v>1380</v>
+      </c>
+      <c r="C14">
+        <v>104</v>
+      </c>
+      <c r="D14">
+        <v>11</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>300</v>
+      </c>
+      <c r="G14">
+        <v>0.1</v>
+      </c>
+      <c r="H14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J14">
+        <v>0.06</v>
+      </c>
+      <c r="K14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
+        <v>1250</v>
+      </c>
+      <c r="C15">
+        <v>47</v>
+      </c>
+      <c r="D15">
+        <v>7</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>300</v>
+      </c>
+      <c r="G15">
+        <v>0.1</v>
+      </c>
+      <c r="H15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="G19:G32">
+    <sortCondition ref="G19"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="7" width="9.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="6" width="9.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="5" width="9.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/Giai_Dau.xlsx
+++ b/Excel/Giai_Dau.xlsx
@@ -4,76 +4,31 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="630" windowWidth="20775" windowHeight="8895"/>
+    <workbookView xWindow="390" yWindow="630" windowWidth="20775" windowHeight="8895" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="DS_Vong" sheetId="8" r:id="rId1"/>
     <sheet name="DS_VDV" sheetId="7" r:id="rId2"/>
     <sheet name="DS_Giai" sheetId="4" r:id="rId3"/>
     <sheet name="DS_Trinh" sheetId="6" r:id="rId4"/>
-    <sheet name="DS_Cap" sheetId="2" r:id="rId5"/>
-    <sheet name="DS_Bang" sheetId="1" r:id="rId6"/>
-    <sheet name="DS_Tran" sheetId="5" r:id="rId7"/>
-    <sheet name="DS_Diem" sheetId="3" r:id="rId8"/>
+    <sheet name="Sheet3" sheetId="11" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
-  <si>
-    <t>Id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="182">
   <si>
     <t>Diem</t>
   </si>
   <si>
-    <t>ID_Trinh</t>
-  </si>
-  <si>
     <t>Ten</t>
   </si>
   <si>
-    <t>ID_Bang</t>
-  </si>
-  <si>
-    <t>ID_Vdv1</t>
-  </si>
-  <si>
-    <t>ID_Vdv2</t>
-  </si>
-  <si>
-    <t>MaCap</t>
-  </si>
-  <si>
-    <t>ID_Cap</t>
-  </si>
-  <si>
-    <t>ID_Vong</t>
-  </si>
-  <si>
-    <t>GhiChu</t>
-  </si>
-  <si>
     <t>Ngay</t>
   </si>
   <si>
-    <t>ID_Cap1</t>
-  </si>
-  <si>
-    <t>ID_Cap2</t>
-  </si>
-  <si>
-    <t>Kq_1</t>
-  </si>
-  <si>
-    <t>Kq_2</t>
-  </si>
-  <si>
-    <t>Ma_Tran</t>
-  </si>
-  <si>
     <t>ChenhLech</t>
   </si>
   <si>
@@ -110,45 +65,12 @@
     <t>CLB</t>
   </si>
   <si>
-    <t>ChucVu</t>
-  </si>
-  <si>
-    <t>CongTy</t>
-  </si>
-  <si>
-    <t>DiemCu</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>FileAnh</t>
-  </si>
-  <si>
-    <t>Ho</t>
-  </si>
-  <si>
-    <t>ID_KhuVuc</t>
-  </si>
-  <si>
     <t>KhachMoi</t>
   </si>
   <si>
-    <t>Ma_Cap</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Tel</t>
-  </si>
-  <si>
     <t>Ten_Tat</t>
   </si>
   <si>
-    <t>Tham_Gia</t>
-  </si>
-  <si>
     <t>MaVong</t>
   </si>
   <si>
@@ -180,13 +102,475 @@
   </si>
   <si>
     <t>Vô Địch</t>
+  </si>
+  <si>
+    <t>Tất niên 2019</t>
+  </si>
+  <si>
+    <t>Xuân 2020</t>
+  </si>
+  <si>
+    <t>Tháng 5/2020</t>
+  </si>
+  <si>
+    <t>Tiếp sức đến trường 2020</t>
+  </si>
+  <si>
+    <t>Canon 2020</t>
+  </si>
+  <si>
+    <t>Tất niên 2020</t>
+  </si>
+  <si>
+    <t>Gia Huy (VT QN)</t>
+  </si>
+  <si>
+    <t>QN</t>
+  </si>
+  <si>
+    <t>Bình Đèn</t>
+  </si>
+  <si>
+    <t>NT</t>
+  </si>
+  <si>
+    <t>Nguyên HQ</t>
+  </si>
+  <si>
+    <t>Hải Quân</t>
+  </si>
+  <si>
+    <t>Sơn (Tú Sơn - PY)</t>
+  </si>
+  <si>
+    <t>Dũng Tú Sơn</t>
+  </si>
+  <si>
+    <t>Phú Yên</t>
+  </si>
+  <si>
+    <t>Dũ Cetis</t>
+  </si>
+  <si>
+    <t>Nam LinhS</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>Khánh HQ</t>
+  </si>
+  <si>
+    <t>Chính (Việt An)</t>
+  </si>
+  <si>
+    <t>Hoàng (Đốm)</t>
+  </si>
+  <si>
+    <t>Phước Hòa</t>
+  </si>
+  <si>
+    <t>Lê Tư Sinh</t>
+  </si>
+  <si>
+    <t>Hảo CNCS</t>
+  </si>
+  <si>
+    <t>Hưng PĐ</t>
+  </si>
+  <si>
+    <t>Vĩnh CenIT</t>
+  </si>
+  <si>
+    <t>Thọ Hội TT</t>
+  </si>
+  <si>
+    <t>Hội Thông Tin</t>
+  </si>
+  <si>
+    <t>Khương Hội TT</t>
+  </si>
+  <si>
+    <t>Duyệt HQ</t>
+  </si>
+  <si>
+    <t>Bình Đèn LED</t>
+  </si>
+  <si>
+    <t>L. Khánh HQ</t>
+  </si>
+  <si>
+    <t>Huân QH</t>
+  </si>
+  <si>
+    <t>Đức BĐS</t>
+  </si>
+  <si>
+    <t>Ân NSSC</t>
+  </si>
+  <si>
+    <t>Ninh Hoà</t>
+  </si>
+  <si>
+    <t>Minh SB</t>
+  </si>
+  <si>
+    <t>Quân CTN</t>
+  </si>
+  <si>
+    <t>Dũng PH</t>
+  </si>
+  <si>
+    <t>Diệp TD</t>
+  </si>
+  <si>
+    <t>HCM</t>
+  </si>
+  <si>
+    <t>Út Hội TT</t>
+  </si>
+  <si>
+    <t>Mr Trần Tú</t>
+  </si>
+  <si>
+    <t>Tuấn NHBD</t>
+  </si>
+  <si>
+    <t>Nam Lý Gia</t>
+  </si>
+  <si>
+    <t>Dương Quang Hổ</t>
+  </si>
+  <si>
+    <t>Phước Hoà</t>
+  </si>
+  <si>
+    <t>Minh MP</t>
+  </si>
+  <si>
+    <t>Thành (Vân Phong)</t>
+  </si>
+  <si>
+    <t>Lên (Vạn Ninh)</t>
+  </si>
+  <si>
+    <t>Quang PAn</t>
+  </si>
+  <si>
+    <t>Sang CM</t>
+  </si>
+  <si>
+    <t>An Vạn Xuân</t>
+  </si>
+  <si>
+    <t>Thi XD</t>
+  </si>
+  <si>
+    <t>Tuấn NT</t>
+  </si>
+  <si>
+    <t>Triết CenIT</t>
+  </si>
+  <si>
+    <t>Tuấn TH</t>
+  </si>
+  <si>
+    <t>Mr Kiên HCN</t>
+  </si>
+  <si>
+    <t>Tường An Phú</t>
+  </si>
+  <si>
+    <t>An HN</t>
+  </si>
+  <si>
+    <t>Tuấn NIC</t>
+  </si>
+  <si>
+    <t>Phi (HP HCM)</t>
+  </si>
+  <si>
+    <t>Mr Thành GLH</t>
+  </si>
+  <si>
+    <t>Tuất VĐ</t>
+  </si>
+  <si>
+    <t>Cường ĐP</t>
+  </si>
+  <si>
+    <t>Vũ Ami</t>
+  </si>
+  <si>
+    <t>Dũng VS</t>
+  </si>
+  <si>
+    <t>Phạm Minh Hảo</t>
+  </si>
+  <si>
+    <t>FPT Đà Nẵng</t>
+  </si>
+  <si>
+    <t>Phương CITYTECH</t>
+  </si>
+  <si>
+    <t>Lạc Hội TT</t>
+  </si>
+  <si>
+    <t>Chung Hội TT</t>
+  </si>
+  <si>
+    <t>Hùng VP</t>
+  </si>
+  <si>
+    <t>Sang TP</t>
+  </si>
+  <si>
+    <t>Võ HQ</t>
+  </si>
+  <si>
+    <t>Chinh Hội TT</t>
+  </si>
+  <si>
+    <t>Mr Trần Khắc Thảo</t>
+  </si>
+  <si>
+    <t>Long Hội TT</t>
+  </si>
+  <si>
+    <t>Mr Bá Tước</t>
+  </si>
+  <si>
+    <t>Trung THM</t>
+  </si>
+  <si>
+    <t>Phát PH</t>
+  </si>
+  <si>
+    <t>Hoàn TIC</t>
+  </si>
+  <si>
+    <t>Đà Nẵng</t>
+  </si>
+  <si>
+    <t>Tân PR</t>
+  </si>
+  <si>
+    <t>Đoàn (VH - HCM)</t>
+  </si>
+  <si>
+    <t>Mr Anh (AN HCM)</t>
+  </si>
+  <si>
+    <t>Tuấn TL</t>
+  </si>
+  <si>
+    <t>Quãng Ngãi</t>
+  </si>
+  <si>
+    <t>Đáng VPH</t>
+  </si>
+  <si>
+    <t>Hoàng FSC</t>
+  </si>
+  <si>
+    <t>Tiền (DSS-HCM)</t>
+  </si>
+  <si>
+    <t>Bảo Sacombank</t>
+  </si>
+  <si>
+    <t>Sơn Thiên Ân</t>
+  </si>
+  <si>
+    <t>Nguyễn Hữu Lương</t>
+  </si>
+  <si>
+    <t>Vĩnh HCN</t>
+  </si>
+  <si>
+    <t>Lam Anh Khôi</t>
+  </si>
+  <si>
+    <t>Thứ Phương Lan</t>
+  </si>
+  <si>
+    <t>Ái ASUS</t>
+  </si>
+  <si>
+    <t>Mr Lê Thành Chung</t>
+  </si>
+  <si>
+    <t>B.Phương (VT VN)</t>
+  </si>
+  <si>
+    <t>Hùng HM</t>
+  </si>
+  <si>
+    <t>Hà QL</t>
+  </si>
+  <si>
+    <t>Mr Sinh Sunrise</t>
+  </si>
+  <si>
+    <t>Mr Lợi ĐD</t>
+  </si>
+  <si>
+    <t>Phúc PDK</t>
+  </si>
+  <si>
+    <t>Nguyên HCN</t>
+  </si>
+  <si>
+    <t>Thông NH</t>
+  </si>
+  <si>
+    <t>Ninh Hòa</t>
+  </si>
+  <si>
+    <t>Mr Duy (FPT MT)</t>
+  </si>
+  <si>
+    <t>Hưởng Hội TT</t>
+  </si>
+  <si>
+    <t>Amin PR</t>
+  </si>
+  <si>
+    <t>Huân Vinatech</t>
+  </si>
+  <si>
+    <t>Tùng Anh</t>
+  </si>
+  <si>
+    <t>Tuân HCN</t>
+  </si>
+  <si>
+    <t>Nguyễn Minh Đức</t>
+  </si>
+  <si>
+    <t>Thi Gỗ HCN</t>
+  </si>
+  <si>
+    <t>Ánh Hội TTĐ</t>
+  </si>
+  <si>
+    <t>Diệp (GP HCM)</t>
+  </si>
+  <si>
+    <t>Ms Hoa (VT QN)</t>
+  </si>
+  <si>
+    <t>Ms. Trang Nhật Phong</t>
+  </si>
+  <si>
+    <t>Đua VHLT</t>
+  </si>
+  <si>
+    <t>Giang TG</t>
+  </si>
+  <si>
+    <t>Linh SeaSoft</t>
+  </si>
+  <si>
+    <t>Mỹ 24/7</t>
+  </si>
+  <si>
+    <t>A. Lý VG</t>
+  </si>
+  <si>
+    <t>Khải Micons</t>
+  </si>
+  <si>
+    <t>Phúc Lưu Phúc</t>
+  </si>
+  <si>
+    <t>Ms. Hiền SQTT</t>
+  </si>
+  <si>
+    <t>Cường (Telecom HCM)</t>
+  </si>
+  <si>
+    <t>Lương (FPT MT)</t>
+  </si>
+  <si>
+    <t>Thắng Nhatech</t>
+  </si>
+  <si>
+    <t>Sơn VHLT</t>
+  </si>
+  <si>
+    <t>Thanh LQ</t>
+  </si>
+  <si>
+    <t>Thiện Lenovo</t>
+  </si>
+  <si>
+    <t>Lenovo</t>
+  </si>
+  <si>
+    <t>Vinh Asia</t>
+  </si>
+  <si>
+    <t>Cang VP</t>
+  </si>
+  <si>
+    <t>Hảo (FPT MT)</t>
+  </si>
+  <si>
+    <t>Tâm (MT HCM)</t>
+  </si>
+  <si>
+    <t>Thanh TH</t>
+  </si>
+  <si>
+    <t>Thi SK</t>
+  </si>
+  <si>
+    <t>Bình Dương</t>
+  </si>
+  <si>
+    <t>NĐ Huy</t>
+  </si>
+  <si>
+    <t>Anh (Hải Anh)</t>
+  </si>
+  <si>
+    <t>Khôi (FPT MT)</t>
+  </si>
+  <si>
+    <t>Hùng HAT</t>
+  </si>
+  <si>
+    <t>Kiệt ASUS</t>
+  </si>
+  <si>
+    <t>Khôi - KMC</t>
+  </si>
+  <si>
+    <t>ĐaniÊn TT</t>
+  </si>
+  <si>
+    <t>Ms Thọ VG</t>
+  </si>
+  <si>
+    <t>Hòa TTĐ</t>
+  </si>
+  <si>
+    <t>Ms. Năm</t>
+  </si>
+  <si>
+    <t>GioiTinh</t>
+  </si>
+  <si>
+    <t>Tân niên 2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -195,14 +579,38 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -217,9 +625,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -232,6 +646,87 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>179943</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>94786</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8257143" cy="3714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>65657</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>94643</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4381500"/>
+          <a:ext cx="8142857" cy="4857143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -523,7 +1018,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -535,10 +1030,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -546,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -554,7 +1049,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -562,7 +1057,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -570,7 +1065,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -578,7 +1073,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -586,7 +1081,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -594,7 +1089,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -602,7 +1097,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -610,7 +1105,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -618,7 +1113,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -631,72 +1126,2078 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:E133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="11" width="9.140625" customWidth="1"/>
-    <col min="12" max="12" width="11" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" customWidth="1"/>
-    <col min="14" max="16" width="9.140625" customWidth="1"/>
-    <col min="17" max="17" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2">
+        <v>770</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3">
+        <v>761</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4">
+        <v>750</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="C5">
+        <v>750</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6">
+        <v>748</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="C7">
+        <v>747</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8">
+        <v>743</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" t="s">
         <v>39</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>41</v>
+      <c r="C9">
+        <v>734</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10">
+        <v>731</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11">
+        <v>730</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12">
+        <v>730</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13">
+        <v>729</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14">
+        <v>723</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15">
+        <v>722</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16">
+        <v>721</v>
+      </c>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17">
+        <v>718</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18">
+        <v>716</v>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19">
+        <v>710</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20">
+        <v>709</v>
+      </c>
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21">
+        <v>706</v>
+      </c>
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22">
+        <v>702</v>
+      </c>
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23">
+        <v>701</v>
+      </c>
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24">
+        <v>700</v>
+      </c>
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25">
+        <v>699</v>
+      </c>
+      <c r="D25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26">
+        <v>697</v>
+      </c>
+      <c r="D26" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27">
+        <v>695</v>
+      </c>
+      <c r="D27" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28">
+        <v>695</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29">
+        <v>694</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30">
+        <v>692</v>
+      </c>
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31">
+        <v>691</v>
+      </c>
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32">
+        <v>690</v>
+      </c>
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33">
+        <v>690</v>
+      </c>
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34">
+        <v>690</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35">
+        <v>687</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36">
+        <v>687</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37">
+        <v>686</v>
+      </c>
+      <c r="D37" t="b">
+        <v>0</v>
+      </c>
+      <c r="E37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38">
+        <v>685</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39">
+        <v>685</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40">
+        <v>685</v>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41">
+        <v>684</v>
+      </c>
+      <c r="D41" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42">
+        <v>684</v>
+      </c>
+      <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43">
+        <v>683</v>
+      </c>
+      <c r="D43" t="b">
+        <v>1</v>
+      </c>
+      <c r="E43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44">
+        <v>682</v>
+      </c>
+      <c r="D44" t="b">
+        <v>1</v>
+      </c>
+      <c r="E44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45">
+        <v>680</v>
+      </c>
+      <c r="D45" t="b">
+        <v>1</v>
+      </c>
+      <c r="E45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46">
+        <v>680</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47">
+        <v>680</v>
+      </c>
+      <c r="D47" t="b">
+        <v>1</v>
+      </c>
+      <c r="E47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>90</v>
+      </c>
+      <c r="B48" t="s">
+        <v>37</v>
+      </c>
+      <c r="C48">
+        <v>679</v>
+      </c>
+      <c r="D48" t="b">
+        <v>1</v>
+      </c>
+      <c r="E48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>91</v>
+      </c>
+      <c r="C49">
+        <v>679</v>
+      </c>
+      <c r="D49" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>92</v>
+      </c>
+      <c r="C50">
+        <v>678</v>
+      </c>
+      <c r="D50" t="b">
+        <v>0</v>
+      </c>
+      <c r="E50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>93</v>
+      </c>
+      <c r="C51">
+        <v>678</v>
+      </c>
+      <c r="D51" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>94</v>
+      </c>
+      <c r="C52">
+        <v>676</v>
+      </c>
+      <c r="D52" t="b">
+        <v>1</v>
+      </c>
+      <c r="E52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>95</v>
+      </c>
+      <c r="B53" t="s">
+        <v>96</v>
+      </c>
+      <c r="C53">
+        <v>676</v>
+      </c>
+      <c r="D53" t="b">
+        <v>1</v>
+      </c>
+      <c r="E53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>97</v>
+      </c>
+      <c r="B54" t="s">
+        <v>37</v>
+      </c>
+      <c r="C54">
+        <v>675</v>
+      </c>
+      <c r="D54" t="b">
+        <v>1</v>
+      </c>
+      <c r="E54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>98</v>
+      </c>
+      <c r="B55" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55">
+        <v>675</v>
+      </c>
+      <c r="D55" t="b">
+        <v>1</v>
+      </c>
+      <c r="E55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>99</v>
+      </c>
+      <c r="B56" t="s">
+        <v>55</v>
+      </c>
+      <c r="C56">
+        <v>674</v>
+      </c>
+      <c r="D56" t="b">
+        <v>1</v>
+      </c>
+      <c r="E56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>100</v>
+      </c>
+      <c r="C57">
+        <v>672</v>
+      </c>
+      <c r="D57" t="b">
+        <v>0</v>
+      </c>
+      <c r="E57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>101</v>
+      </c>
+      <c r="C58">
+        <v>672</v>
+      </c>
+      <c r="D58" t="b">
+        <v>0</v>
+      </c>
+      <c r="E58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>102</v>
+      </c>
+      <c r="B59" t="s">
+        <v>39</v>
+      </c>
+      <c r="C59">
+        <v>671</v>
+      </c>
+      <c r="D59" t="b">
+        <v>1</v>
+      </c>
+      <c r="E59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>103</v>
+      </c>
+      <c r="B60" t="s">
+        <v>55</v>
+      </c>
+      <c r="C60">
+        <v>671</v>
+      </c>
+      <c r="D60" t="b">
+        <v>1</v>
+      </c>
+      <c r="E60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>104</v>
+      </c>
+      <c r="B61" t="s">
+        <v>68</v>
+      </c>
+      <c r="C61">
+        <v>670</v>
+      </c>
+      <c r="D61" t="b">
+        <v>1</v>
+      </c>
+      <c r="E61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>105</v>
+      </c>
+      <c r="B62" t="s">
+        <v>55</v>
+      </c>
+      <c r="C62">
+        <v>670</v>
+      </c>
+      <c r="D62" t="b">
+        <v>1</v>
+      </c>
+      <c r="E62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>106</v>
+      </c>
+      <c r="B63" t="s">
+        <v>37</v>
+      </c>
+      <c r="C63">
+        <v>669</v>
+      </c>
+      <c r="D63" t="b">
+        <v>1</v>
+      </c>
+      <c r="E63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>107</v>
+      </c>
+      <c r="C64">
+        <v>666</v>
+      </c>
+      <c r="D64" t="b">
+        <v>0</v>
+      </c>
+      <c r="E64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>108</v>
+      </c>
+      <c r="C65">
+        <v>665</v>
+      </c>
+      <c r="D65" t="b">
+        <v>0</v>
+      </c>
+      <c r="E65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>109</v>
+      </c>
+      <c r="B66" t="s">
+        <v>110</v>
+      </c>
+      <c r="C66">
+        <v>661</v>
+      </c>
+      <c r="D66" t="b">
+        <v>1</v>
+      </c>
+      <c r="E66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>111</v>
+      </c>
+      <c r="C67">
+        <v>661</v>
+      </c>
+      <c r="D67" t="b">
+        <v>1</v>
+      </c>
+      <c r="E67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>112</v>
+      </c>
+      <c r="C68">
+        <v>660</v>
+      </c>
+      <c r="D68" t="b">
+        <v>1</v>
+      </c>
+      <c r="E68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>113</v>
+      </c>
+      <c r="C69">
+        <v>660</v>
+      </c>
+      <c r="D69" t="b">
+        <v>1</v>
+      </c>
+      <c r="E69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>114</v>
+      </c>
+      <c r="B70" t="s">
+        <v>115</v>
+      </c>
+      <c r="C70">
+        <v>660</v>
+      </c>
+      <c r="D70" t="b">
+        <v>1</v>
+      </c>
+      <c r="E70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>116</v>
+      </c>
+      <c r="B71" t="s">
+        <v>68</v>
+      </c>
+      <c r="C71">
+        <v>658</v>
+      </c>
+      <c r="D71" t="b">
+        <v>1</v>
+      </c>
+      <c r="E71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>117</v>
+      </c>
+      <c r="C72">
+        <v>658</v>
+      </c>
+      <c r="D72" t="b">
+        <v>1</v>
+      </c>
+      <c r="E72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>118</v>
+      </c>
+      <c r="C73">
+        <v>658</v>
+      </c>
+      <c r="D73" t="b">
+        <v>1</v>
+      </c>
+      <c r="E73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>119</v>
+      </c>
+      <c r="B74" t="s">
+        <v>68</v>
+      </c>
+      <c r="C74">
+        <v>657</v>
+      </c>
+      <c r="D74" t="b">
+        <v>1</v>
+      </c>
+      <c r="E74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>120</v>
+      </c>
+      <c r="B75" t="s">
+        <v>68</v>
+      </c>
+      <c r="C75">
+        <v>657</v>
+      </c>
+      <c r="D75" t="b">
+        <v>1</v>
+      </c>
+      <c r="E75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>121</v>
+      </c>
+      <c r="B76" t="s">
+        <v>96</v>
+      </c>
+      <c r="C76">
+        <v>656</v>
+      </c>
+      <c r="D76" t="b">
+        <v>1</v>
+      </c>
+      <c r="E76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>122</v>
+      </c>
+      <c r="C77">
+        <v>656</v>
+      </c>
+      <c r="D77" t="b">
+        <v>1</v>
+      </c>
+      <c r="E77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>123</v>
+      </c>
+      <c r="B78" t="s">
+        <v>110</v>
+      </c>
+      <c r="C78">
+        <v>654</v>
+      </c>
+      <c r="D78" t="b">
+        <v>1</v>
+      </c>
+      <c r="E78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>124</v>
+      </c>
+      <c r="B79" t="s">
+        <v>110</v>
+      </c>
+      <c r="C79">
+        <v>654</v>
+      </c>
+      <c r="D79" t="b">
+        <v>1</v>
+      </c>
+      <c r="E79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>125</v>
+      </c>
+      <c r="B80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C80">
+        <v>652</v>
+      </c>
+      <c r="D80" t="b">
+        <v>1</v>
+      </c>
+      <c r="E80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>126</v>
+      </c>
+      <c r="B81" t="s">
+        <v>68</v>
+      </c>
+      <c r="C81">
+        <v>651</v>
+      </c>
+      <c r="D81" t="b">
+        <v>1</v>
+      </c>
+      <c r="E81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>127</v>
+      </c>
+      <c r="C82">
+        <v>650</v>
+      </c>
+      <c r="D82" t="b">
+        <v>1</v>
+      </c>
+      <c r="E82" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>117</v>
+      </c>
+      <c r="C83">
+        <v>650</v>
+      </c>
+      <c r="D83" t="b">
+        <v>1</v>
+      </c>
+      <c r="E83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>128</v>
+      </c>
+      <c r="B84" t="s">
+        <v>110</v>
+      </c>
+      <c r="C84">
+        <v>650</v>
+      </c>
+      <c r="D84" t="b">
+        <v>1</v>
+      </c>
+      <c r="E84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>129</v>
+      </c>
+      <c r="B85" t="s">
+        <v>55</v>
+      </c>
+      <c r="C85">
+        <v>649</v>
+      </c>
+      <c r="D85" t="b">
+        <v>1</v>
+      </c>
+      <c r="E85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>130</v>
+      </c>
+      <c r="B86" t="s">
+        <v>37</v>
+      </c>
+      <c r="C86">
+        <v>646</v>
+      </c>
+      <c r="D86" t="b">
+        <v>1</v>
+      </c>
+      <c r="E86" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>131</v>
+      </c>
+      <c r="C87">
+        <v>645</v>
+      </c>
+      <c r="D87" t="b">
+        <v>1</v>
+      </c>
+      <c r="E87" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>132</v>
+      </c>
+      <c r="B88" t="s">
+        <v>68</v>
+      </c>
+      <c r="C88">
+        <v>644</v>
+      </c>
+      <c r="D88" t="b">
+        <v>1</v>
+      </c>
+      <c r="E88" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>133</v>
+      </c>
+      <c r="C89">
+        <v>643</v>
+      </c>
+      <c r="D89" t="b">
+        <v>1</v>
+      </c>
+      <c r="E89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>134</v>
+      </c>
+      <c r="B90" t="s">
+        <v>135</v>
+      </c>
+      <c r="C90">
+        <v>642</v>
+      </c>
+      <c r="D90" t="b">
+        <v>1</v>
+      </c>
+      <c r="E90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>136</v>
+      </c>
+      <c r="C91">
+        <v>641</v>
+      </c>
+      <c r="D91" t="b">
+        <v>1</v>
+      </c>
+      <c r="E91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>137</v>
+      </c>
+      <c r="B92" t="s">
+        <v>55</v>
+      </c>
+      <c r="C92">
+        <v>641</v>
+      </c>
+      <c r="D92" t="b">
+        <v>1</v>
+      </c>
+      <c r="E92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>138</v>
+      </c>
+      <c r="C93">
+        <v>640</v>
+      </c>
+      <c r="D93" t="b">
+        <v>1</v>
+      </c>
+      <c r="E93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>139</v>
+      </c>
+      <c r="C94">
+        <v>639</v>
+      </c>
+      <c r="D94" t="b">
+        <v>0</v>
+      </c>
+      <c r="E94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>140</v>
+      </c>
+      <c r="C95">
+        <v>639</v>
+      </c>
+      <c r="D95" t="b">
+        <v>0</v>
+      </c>
+      <c r="E95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>141</v>
+      </c>
+      <c r="C96">
+        <v>639</v>
+      </c>
+      <c r="D96" t="b">
+        <v>1</v>
+      </c>
+      <c r="E96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>142</v>
+      </c>
+      <c r="B97" t="s">
+        <v>96</v>
+      </c>
+      <c r="C97">
+        <v>636</v>
+      </c>
+      <c r="D97" t="b">
+        <v>1</v>
+      </c>
+      <c r="E97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>143</v>
+      </c>
+      <c r="C98">
+        <v>635</v>
+      </c>
+      <c r="D98" t="b">
+        <v>1</v>
+      </c>
+      <c r="E98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>144</v>
+      </c>
+      <c r="C99">
+        <v>632</v>
+      </c>
+      <c r="D99" t="b">
+        <v>1</v>
+      </c>
+      <c r="E99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>145</v>
+      </c>
+      <c r="C100">
+        <v>630</v>
+      </c>
+      <c r="D100" t="b">
+        <v>1</v>
+      </c>
+      <c r="E100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>146</v>
+      </c>
+      <c r="C101">
+        <v>630</v>
+      </c>
+      <c r="D101" t="b">
+        <v>1</v>
+      </c>
+      <c r="E101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>147</v>
+      </c>
+      <c r="B102" t="s">
+        <v>37</v>
+      </c>
+      <c r="C102">
+        <v>629</v>
+      </c>
+      <c r="D102" t="b">
+        <v>1</v>
+      </c>
+      <c r="E102" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>148</v>
+      </c>
+      <c r="B103" t="s">
+        <v>68</v>
+      </c>
+      <c r="C103">
+        <v>627</v>
+      </c>
+      <c r="D103" t="b">
+        <v>1</v>
+      </c>
+      <c r="E103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>149</v>
+      </c>
+      <c r="B104" t="s">
+        <v>68</v>
+      </c>
+      <c r="C104">
+        <v>627</v>
+      </c>
+      <c r="D104" t="b">
+        <v>1</v>
+      </c>
+      <c r="E104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>150</v>
+      </c>
+      <c r="C105">
+        <v>627</v>
+      </c>
+      <c r="D105" t="b">
+        <v>0</v>
+      </c>
+      <c r="E105" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>151</v>
+      </c>
+      <c r="C106">
+        <v>624</v>
+      </c>
+      <c r="D106" t="b">
+        <v>0</v>
+      </c>
+      <c r="E106" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>152</v>
+      </c>
+      <c r="C107">
+        <v>623</v>
+      </c>
+      <c r="D107" t="b">
+        <v>0</v>
+      </c>
+      <c r="E107" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>153</v>
+      </c>
+      <c r="B108" t="s">
+        <v>37</v>
+      </c>
+      <c r="C108">
+        <v>623</v>
+      </c>
+      <c r="D108" t="b">
+        <v>1</v>
+      </c>
+      <c r="E108" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>154</v>
+      </c>
+      <c r="B109" t="s">
+        <v>68</v>
+      </c>
+      <c r="C109">
+        <v>622</v>
+      </c>
+      <c r="D109" t="b">
+        <v>1</v>
+      </c>
+      <c r="E109" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>155</v>
+      </c>
+      <c r="B110" t="s">
+        <v>55</v>
+      </c>
+      <c r="C110">
+        <v>622</v>
+      </c>
+      <c r="D110" t="b">
+        <v>1</v>
+      </c>
+      <c r="E110" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>156</v>
+      </c>
+      <c r="C111">
+        <v>620</v>
+      </c>
+      <c r="D111" t="b">
+        <v>1</v>
+      </c>
+      <c r="E111" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>157</v>
+      </c>
+      <c r="C112">
+        <v>620</v>
+      </c>
+      <c r="D112" t="b">
+        <v>1</v>
+      </c>
+      <c r="E112" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>158</v>
+      </c>
+      <c r="C113">
+        <v>620</v>
+      </c>
+      <c r="D113" t="b">
+        <v>0</v>
+      </c>
+      <c r="E113" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>159</v>
+      </c>
+      <c r="B114" t="s">
+        <v>68</v>
+      </c>
+      <c r="C114">
+        <v>619</v>
+      </c>
+      <c r="D114" t="b">
+        <v>1</v>
+      </c>
+      <c r="E114" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>160</v>
+      </c>
+      <c r="B115" t="s">
+        <v>68</v>
+      </c>
+      <c r="C115">
+        <v>619</v>
+      </c>
+      <c r="D115" t="b">
+        <v>1</v>
+      </c>
+      <c r="E115" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>161</v>
+      </c>
+      <c r="B116" t="s">
+        <v>162</v>
+      </c>
+      <c r="C116">
+        <v>617</v>
+      </c>
+      <c r="D116" t="b">
+        <v>1</v>
+      </c>
+      <c r="E116" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>163</v>
+      </c>
+      <c r="B117" t="s">
+        <v>37</v>
+      </c>
+      <c r="C117">
+        <v>617</v>
+      </c>
+      <c r="D117" t="b">
+        <v>1</v>
+      </c>
+      <c r="E117" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>164</v>
+      </c>
+      <c r="C118">
+        <v>609</v>
+      </c>
+      <c r="D118" t="b">
+        <v>0</v>
+      </c>
+      <c r="E118" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>165</v>
+      </c>
+      <c r="C119">
+        <v>600</v>
+      </c>
+      <c r="D119" t="b">
+        <v>1</v>
+      </c>
+      <c r="E119" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>166</v>
+      </c>
+      <c r="C120">
+        <v>600</v>
+      </c>
+      <c r="D120" t="b">
+        <v>1</v>
+      </c>
+      <c r="E120" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>167</v>
+      </c>
+      <c r="C121">
+        <v>600</v>
+      </c>
+      <c r="D121" t="b">
+        <v>0</v>
+      </c>
+      <c r="E121" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>168</v>
+      </c>
+      <c r="C122">
+        <v>598</v>
+      </c>
+      <c r="D122" t="b">
+        <v>0</v>
+      </c>
+      <c r="E122" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>169</v>
+      </c>
+      <c r="C123">
+        <v>596</v>
+      </c>
+      <c r="D123" t="b">
+        <v>0</v>
+      </c>
+      <c r="E123" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>170</v>
+      </c>
+      <c r="C124">
+        <v>595</v>
+      </c>
+      <c r="D124" t="b">
+        <v>1</v>
+      </c>
+      <c r="E124" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>171</v>
+      </c>
+      <c r="C125">
+        <v>591</v>
+      </c>
+      <c r="D125" t="b">
+        <v>1</v>
+      </c>
+      <c r="E125" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>172</v>
+      </c>
+      <c r="C126">
+        <v>590</v>
+      </c>
+      <c r="D126" t="b">
+        <v>1</v>
+      </c>
+      <c r="E126" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>173</v>
+      </c>
+      <c r="C127">
+        <v>586</v>
+      </c>
+      <c r="D127" t="b">
+        <v>0</v>
+      </c>
+      <c r="E127" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>174</v>
+      </c>
+      <c r="B128" t="s">
+        <v>68</v>
+      </c>
+      <c r="C128">
+        <v>584</v>
+      </c>
+      <c r="D128" t="b">
+        <v>1</v>
+      </c>
+      <c r="E128" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>175</v>
+      </c>
+      <c r="C129">
+        <v>581</v>
+      </c>
+      <c r="D129" t="b">
+        <v>0</v>
+      </c>
+      <c r="E129" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>176</v>
+      </c>
+      <c r="C130">
+        <v>576</v>
+      </c>
+      <c r="D130" t="b">
+        <v>0</v>
+      </c>
+      <c r="E130" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>177</v>
+      </c>
+      <c r="C131">
+        <v>574</v>
+      </c>
+      <c r="D131" t="b">
+        <v>0</v>
+      </c>
+      <c r="E131" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>178</v>
+      </c>
+      <c r="C132">
+        <v>571</v>
+      </c>
+      <c r="D132" t="b">
+        <v>1</v>
+      </c>
+      <c r="E132" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>179</v>
+      </c>
+      <c r="C133">
+        <v>569</v>
+      </c>
+      <c r="D133" t="b">
+        <v>1</v>
+      </c>
+      <c r="E133" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -706,29 +3207,80 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>43827</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>43862</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>43974</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>44030</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>44121</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>44191</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>44247</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -738,209 +3290,531 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="9.140625" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="2">
+        <v>1240</v>
+      </c>
+      <c r="C2">
+        <v>48</v>
+      </c>
+      <c r="D2">
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>300</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0.6</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="2">
+        <v>1340</v>
+      </c>
+      <c r="C3">
+        <v>72</v>
+      </c>
+      <c r="D3">
+        <v>16</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>300</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0.6</v>
+      </c>
+      <c r="I3">
+        <v>0.2</v>
+      </c>
+      <c r="J3">
+        <v>0.2</v>
+      </c>
+      <c r="K3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>1235</v>
+      </c>
+      <c r="C4">
+        <v>72</v>
+      </c>
+      <c r="D4">
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>300</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0.6</v>
+      </c>
+      <c r="I4">
+        <v>0.2</v>
+      </c>
+      <c r="J4">
+        <v>0.2</v>
+      </c>
+      <c r="K4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>1385</v>
+      </c>
+      <c r="C5">
+        <v>72</v>
+      </c>
+      <c r="D5">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>300</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0.6</v>
+      </c>
+      <c r="I5">
+        <v>0.2</v>
+      </c>
+      <c r="J5">
+        <v>0.2</v>
+      </c>
+      <c r="K5">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>1370</v>
+      </c>
+      <c r="C6">
+        <v>103</v>
+      </c>
+      <c r="D6">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>300</v>
+      </c>
+      <c r="G6">
+        <v>0.1</v>
+      </c>
+      <c r="H6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J6">
+        <v>0.06</v>
+      </c>
+      <c r="K6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>1235</v>
+      </c>
+      <c r="C7">
+        <v>111</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>300</v>
+      </c>
+      <c r="G7">
+        <v>0.1</v>
+      </c>
+      <c r="H7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I7">
+        <v>0.13</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>1385</v>
+      </c>
+      <c r="C8">
+        <v>121</v>
+      </c>
+      <c r="D8">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>300</v>
+      </c>
+      <c r="G8">
+        <v>0.1</v>
+      </c>
+      <c r="H8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J8">
+        <v>0.06</v>
+      </c>
+      <c r="K8">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>1250</v>
+      </c>
+      <c r="C9">
+        <v>243</v>
+      </c>
+      <c r="D9">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>27</v>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>300</v>
+      </c>
+      <c r="G9">
+        <v>0.1</v>
+      </c>
+      <c r="H9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J9">
+        <v>0.06</v>
+      </c>
+      <c r="K9">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>1390</v>
+      </c>
+      <c r="C10">
+        <v>77</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>300</v>
+      </c>
+      <c r="G10">
+        <v>0.1</v>
+      </c>
+      <c r="H10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J10">
+        <v>0.06</v>
+      </c>
+      <c r="K10">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>1260</v>
+      </c>
+      <c r="C11">
+        <v>84</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>300</v>
+      </c>
+      <c r="G11">
+        <v>0.1</v>
+      </c>
+      <c r="H11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J11">
+        <v>0.06</v>
+      </c>
+      <c r="K11">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>1355</v>
+      </c>
+      <c r="C12">
+        <v>148</v>
+      </c>
+      <c r="D12">
+        <v>13</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>300</v>
+      </c>
+      <c r="G12">
+        <v>0.1</v>
+      </c>
+      <c r="H12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J12">
+        <v>0.06</v>
+      </c>
+      <c r="K12">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <v>1260</v>
+      </c>
+      <c r="C13">
+        <v>80</v>
+      </c>
+      <c r="D13">
+        <v>9</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>300</v>
+      </c>
+      <c r="G13">
+        <v>0.1</v>
+      </c>
+      <c r="H13">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I13">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J13">
+        <v>0.06</v>
+      </c>
+      <c r="K13">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
+        <v>1380</v>
+      </c>
+      <c r="C14">
+        <v>104</v>
+      </c>
+      <c r="D14">
+        <v>11</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>300</v>
+      </c>
+      <c r="G14">
+        <v>0.1</v>
+      </c>
+      <c r="H14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J14">
+        <v>0.06</v>
+      </c>
+      <c r="K14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
+        <v>1250</v>
+      </c>
+      <c r="C15">
+        <v>47</v>
+      </c>
+      <c r="D15">
+        <v>7</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>300</v>
+      </c>
+      <c r="G15">
+        <v>0.1</v>
+      </c>
+      <c r="H15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="G19:G32">
+    <sortCondition ref="G19"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="7" width="9.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="6" width="9.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="5" width="9.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>